--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C365D7-4FFD-4195-98E7-B4297A2F3924}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F531AB-5918-4721-9AF7-87788B6D7322}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Persona</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Tempo (min)</t>
+  </si>
+  <si>
+    <t>Gianluca</t>
+  </si>
+  <si>
+    <t>GDPR</t>
+  </si>
+  <si>
+    <t>Documentazione</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
-  <sortState ref="E2:I14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I13">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -379,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,22 +415,106 @@
       </c>
     </row>
     <row r="2" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="1"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43426</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43429</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43444</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43467</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43481</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43526</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F531AB-5918-4721-9AF7-87788B6D7322}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Persona</t>
   </si>
@@ -51,12 +50,27 @@
   </si>
   <si>
     <t>Documentazione</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Ricerca info</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>XAMPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +107,11 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -107,17 +125,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576"/>
+  <sortState ref="E2:I20">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{2DC30C39-59B9-4713-8159-3051D2B47652}" name="Persona"/>
-    <tableColumn id="4" xr3:uid="{62A38111-220C-4C01-B113-2B8D0960A9BD}" name="Progetto"/>
-    <tableColumn id="1" xr3:uid="{FAB7A0BA-4742-4D08-939D-37C27539C596}" name="Attività"/>
-    <tableColumn id="2" xr3:uid="{20FEBF9A-D56C-4A74-8AE9-05ECD7560DBB}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{59ED0FF4-4529-434B-A972-2C1B87CBE876}" name="Tempo (min)"/>
+    <tableColumn id="3" name="Persona"/>
+    <tableColumn id="4" name="Progetto"/>
+    <tableColumn id="1" name="Attività"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="5" name="Tempo (min)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -385,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,16 +437,16 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>43426</v>
+        <v>43423</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
@@ -436,16 +454,16 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>43429</v>
+        <v>43424</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
@@ -459,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>43444</v>
+        <v>43426</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
@@ -476,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>43467</v>
+        <v>43429</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -487,16 +505,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1">
-        <v>43481</v>
+        <v>43434</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
@@ -510,29 +528,131 @@
         <v>7</v>
       </c>
       <c r="H7" s="1">
+        <v>43444</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43467</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43481</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43497</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43511</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
         <v>43526</v>
       </c>
-      <c r="I7">
+      <c r="I12">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-    </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43549</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I2:I13)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Persona</t>
   </si>
@@ -127,7 +127,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576"/>
-  <sortState ref="E2:I20">
+  <sortState ref="E2:I19">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I17"/>
+  <dimension ref="E1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,22 +637,39 @@
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43550</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="I14">
-        <f>SUM(I2:I13)</f>
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
+      <c r="I15">
+        <f>SUM(I2:I14)</f>
+        <v>710</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33C4E3-1088-40E8-B2B8-CAB834B66268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,17 +17,23 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>Persona</t>
   </si>
@@ -65,12 +72,15 @@
   </si>
   <si>
     <t>XAMPP</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,17 +135,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576"/>
-  <sortState ref="E2:I19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I18">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" name="Persona"/>
-    <tableColumn id="4" name="Progetto"/>
-    <tableColumn id="1" name="Attività"/>
-    <tableColumn id="2" name="Data"/>
-    <tableColumn id="5" name="Tempo (min)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Persona"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progetto"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Attività"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempo (min)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,21 +664,49 @@
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43552</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43552</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I15">
-        <f>SUM(I2:I14)</f>
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>SUM(I4:I16)</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33C4E3-1088-40E8-B2B8-CAB834B66268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3C175-85BF-4E30-95F6-B220879B2254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>Persona</t>
   </si>
@@ -417,7 +417,7 @@
   <dimension ref="E1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,17 +697,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43554</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I17">
-        <f>SUM(I4:I16)</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
+      <c r="I18">
+        <f>SUM(I5:I17)</f>
+        <v>680</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3C175-85BF-4E30-95F6-B220879B2254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E109DDD-85BA-438E-95F5-48D1C4744655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t>Persona</t>
   </si>
@@ -137,7 +137,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I19">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I18"/>
+  <dimension ref="E1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,12 +715,29 @@
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="I18">
-        <f>SUM(I5:I17)</f>
-        <v>680</v>
+      <c r="I19">
+        <f>SUM(I2:I18)</f>
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E109DDD-85BA-438E-95F5-48D1C4744655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359EFABB-3F65-4413-A957-98488951F61A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="E1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
         <v>43559</v>
       </c>
       <c r="I18">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="I19">
         <f>SUM(I2:I18)</f>
-        <v>920</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Gianluca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359EFABB-3F65-4413-A957-98488951F61A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955D2547-850F-4744-AB30-0C0FBF6137F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Persona</t>
   </si>
@@ -65,16 +65,16 @@
     <t>Interno</t>
   </si>
   <si>
-    <t>Ricerca info</t>
-  </si>
-  <si>
     <t>CM</t>
   </si>
   <si>
-    <t>XAMPP</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I20">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I19"/>
+  <dimension ref="E1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <v>43423</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>43424</v>
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>43434</v>
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <v>43550</v>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1">
         <v>43552</v>
@@ -732,12 +732,29 @@
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43567</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>8</v>
       </c>
-      <c r="I19">
-        <f>SUM(I2:I18)</f>
-        <v>950</v>
+      <c r="I20">
+        <f>SUM(I2:I19)</f>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
